--- a/input_data/HH_Initial_Estimate.xlsx
+++ b/input_data/HH_Initial_Estimate.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AAA1048576"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,387 +405,387 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.017e+003</v>
+        <v>2017</v>
       </c>
       <c r="B2">
-        <v>3.209893e+006</v>
+        <v>3203210</v>
       </c>
       <c r="C2">
-        <v>1.133723e+006</v>
+        <v>1134848</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.018e+003</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>3.226683e+006</v>
+        <v>3226683</v>
       </c>
       <c r="C3">
-        <v>1.139651e+006</v>
+        <v>1139651</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.019e+003</v>
+        <v>2019</v>
       </c>
       <c r="B4">
-        <v>3.25295e+006</v>
+        <v>3237251</v>
       </c>
       <c r="C4">
-        <v>1.189059e+006</v>
+        <v>1183680</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.02e+003</v>
+        <v>2020</v>
       </c>
       <c r="B5">
-        <v>3.279208e+006</v>
+        <v>3250241</v>
       </c>
       <c r="C5">
-        <v>1.200107e+006</v>
+        <v>1190833</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.021e+003</v>
+        <v>2021</v>
       </c>
       <c r="B6">
-        <v>3.305212e+006</v>
+        <v>3263592</v>
       </c>
       <c r="C6">
-        <v>1.211084e+006</v>
+        <v>1197179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.022e+003</v>
+        <v>2022</v>
       </c>
       <c r="B7">
-        <v>3.330629e+006</v>
+        <v>3277900</v>
       </c>
       <c r="C7">
-        <v>1.222023e+006</v>
+        <v>1203590</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.023e+003</v>
+        <v>2023</v>
       </c>
       <c r="B8">
-        <v>3.355541e+006</v>
+        <v>3293278</v>
       </c>
       <c r="C8">
-        <v>1.233039e+006</v>
+        <v>1210537</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.024e+003</v>
+        <v>2024</v>
       </c>
       <c r="B9">
-        <v>3.379891e+006</v>
+        <v>3309666</v>
       </c>
       <c r="C9">
-        <v>1.24421e+006</v>
+        <v>1218264</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.025e+003</v>
+        <v>2025</v>
       </c>
       <c r="B10">
-        <v>3.403605e+006</v>
+        <v>3327214</v>
       </c>
       <c r="C10">
-        <v>1.2557e+006</v>
+        <v>1226831</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.026e+003</v>
+        <v>2026</v>
       </c>
       <c r="B11">
-        <v>3.426694e+006</v>
+        <v>3345075</v>
       </c>
       <c r="C11">
-        <v>1.267378e+006</v>
+        <v>1235774</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2.027e+003</v>
+        <v>2027</v>
       </c>
       <c r="B12">
-        <v>3.449321e+006</v>
+        <v>3362198</v>
       </c>
       <c r="C12">
-        <v>1.278906e+006</v>
+        <v>1244885</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.028e+003</v>
+        <v>2028</v>
       </c>
       <c r="B13">
-        <v>3.471645e+006</v>
+        <v>3378753</v>
       </c>
       <c r="C13">
-        <v>1.290463e+006</v>
+        <v>1254273</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2.029e+003</v>
+        <v>2029</v>
       </c>
       <c r="B14">
-        <v>3.493315e+006</v>
+        <v>3394814</v>
       </c>
       <c r="C14">
-        <v>1.302359e+006</v>
+        <v>1264086</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.03e+003</v>
+        <v>2030</v>
       </c>
       <c r="B15">
-        <v>3.514376e+006</v>
+        <v>3410379</v>
       </c>
       <c r="C15">
-        <v>1.314399e+006</v>
+        <v>1274308</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2.031e+003</v>
+        <v>2031</v>
       </c>
       <c r="B16">
-        <v>3.534934e+006</v>
+        <v>3425282</v>
       </c>
       <c r="C16">
-        <v>1.326503e+006</v>
+        <v>1284568</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2.032e+003</v>
+        <v>2032</v>
       </c>
       <c r="B17">
-        <v>3.555053e+006</v>
+        <v>3439552</v>
       </c>
       <c r="C17">
-        <v>1.33879e+006</v>
+        <v>1294593</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.033e+003</v>
+        <v>2033</v>
       </c>
       <c r="B18">
-        <v>3.575081e+006</v>
+        <v>3453451</v>
       </c>
       <c r="C18">
-        <v>1.351143e+006</v>
+        <v>1304252</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.034e+003</v>
+        <v>2034</v>
       </c>
       <c r="B19">
-        <v>3.594659e+006</v>
+        <v>3467003</v>
       </c>
       <c r="C19">
-        <v>1.363067e+006</v>
+        <v>1313322</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.035e+003</v>
+        <v>2035</v>
       </c>
       <c r="B20">
-        <v>3.614003e+006</v>
+        <v>3480123</v>
       </c>
       <c r="C20">
-        <v>1.374852e+006</v>
+        <v>1321827</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.036e+003</v>
+        <v>2036</v>
       </c>
       <c r="B21">
-        <v>3.633406e+006</v>
+        <v>3492730</v>
       </c>
       <c r="C21">
-        <v>1.386693e+006</v>
+        <v>1330266</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2.037e+003</v>
+        <v>2037</v>
       </c>
       <c r="B22">
-        <v>3.652477e+006</v>
+        <v>3504935</v>
       </c>
       <c r="C22">
-        <v>1.398083e+006</v>
+        <v>1338329</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.038e+003</v>
+        <v>2038</v>
       </c>
       <c r="B23">
-        <v>3.671113e+006</v>
+        <v>3516577</v>
       </c>
       <c r="C23">
-        <v>1.408844e+006</v>
+        <v>1345741</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.039e+003</v>
+        <v>2039</v>
       </c>
       <c r="B24">
-        <v>3.689325e+006</v>
+        <v>3527733</v>
       </c>
       <c r="C24">
-        <v>1.419278e+006</v>
+        <v>1352795</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.04e+003</v>
+        <v>2040</v>
       </c>
       <c r="B25">
-        <v>3.707388e+006</v>
+        <v>3538464</v>
       </c>
       <c r="C25">
-        <v>1.429437e+006</v>
+        <v>1359610</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.041e+003</v>
+        <v>2041</v>
       </c>
       <c r="B26">
-        <v>3.725383e+006</v>
+        <v>3548558</v>
       </c>
       <c r="C26">
-        <v>1.439057e+006</v>
+        <v>1366059</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.042e+003</v>
+        <v>2042</v>
       </c>
       <c r="B27">
-        <v>3.743096e+006</v>
+        <v>3558158</v>
       </c>
       <c r="C27">
-        <v>1.447976e+006</v>
+        <v>1371680</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.043e+003</v>
+        <v>2043</v>
       </c>
       <c r="B28">
-        <v>3.760525e+006</v>
+        <v>3567428</v>
       </c>
       <c r="C28">
-        <v>1.456505e+006</v>
+        <v>1376434</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2.044e+003</v>
+        <v>2044</v>
       </c>
       <c r="B29">
-        <v>3.777567e+006</v>
+        <v>3576304</v>
       </c>
       <c r="C29">
-        <v>1.464494e+006</v>
+        <v>1380128</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.045e+003</v>
+        <v>2045</v>
       </c>
       <c r="B30">
-        <v>3.794262e+006</v>
+        <v>3584622</v>
       </c>
       <c r="C30">
-        <v>1.472013e+006</v>
+        <v>1383386</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.046e+003</v>
+        <v>2046</v>
       </c>
       <c r="B31">
-        <v>3.811008e+006</v>
+        <v>3592070</v>
       </c>
       <c r="C31">
-        <v>1.479189e+006</v>
+        <v>1386679</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2.047e+003</v>
+        <v>2047</v>
       </c>
       <c r="B32">
-        <v>3.827865e+006</v>
+        <v>3598639</v>
       </c>
       <c r="C32">
-        <v>1.485957e+006</v>
+        <v>1389676</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.048e+003</v>
+        <v>2048</v>
       </c>
       <c r="B33">
-        <v>3.844283e+006</v>
+        <v>3604553</v>
       </c>
       <c r="C33">
-        <v>1.492156e+006</v>
+        <v>1392309</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.049e+003</v>
+        <v>2049</v>
       </c>
       <c r="B34">
-        <v>3.86009e+006</v>
+        <v>3609725</v>
       </c>
       <c r="C34">
-        <v>1.497897e+006</v>
+        <v>1394396</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.05e+003</v>
+        <v>2050</v>
       </c>
       <c r="B35">
-        <v>3.875619e+006</v>
+        <v>3614368</v>
       </c>
       <c r="C35">
-        <v>1.503328e+006</v>
+        <v>1396196</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.051e+003</v>
+        <v>2051</v>
       </c>
       <c r="B36">
-        <v>3.890921e+006</v>
+        <v>3618458</v>
       </c>
       <c r="C36">
-        <v>1.508326e+006</v>
+        <v>1397660</v>
       </c>
     </row>
   </sheetData>
